--- a/input/indicators/Education list of Indicators 2021_final.xlsx
+++ b/input/indicators/Education list of Indicators 2021_final.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amelie SALMON\OneDrive\Documents\2. Programmes\2.3 SOM_DSA\DSA V\05_Data analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed Mahamoud\OneDrive - ACTED\1.REACH_Somalia\3.DSA\DSA_V\05_Analysis\SOM2103_DSA_21\input\indicators\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="2" r:id="rId1"/>
@@ -33,17 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
   <si>
     <t>integer</t>
   </si>
   <si>
-    <t>select_one time</t>
-  </si>
-  <si>
-    <t>select_multiple education_facilities</t>
-  </si>
-  <si>
     <t>education_facilities</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
   </si>
   <si>
     <t>How long does it take for MOST school-aged children of the site to walk to their nearest education facility?  (TRAVEL ONE WAY)</t>
-  </si>
-  <si>
-    <t>select_multiple education_barriers</t>
   </si>
   <si>
     <t>education_barriers_boys</t>
@@ -116,27 +107,12 @@
 </t>
   </si>
   <si>
-    <t>% of settlements by main barrier accessing education for boys</t>
-  </si>
-  <si>
     <t>Education</t>
   </si>
   <si>
-    <t>% of settlements by main barrier accessing education for girls</t>
-  </si>
-  <si>
     <t>Variable name in data-set</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Treatment of NA (Skip Logic)</t>
-  </si>
-  <si>
-    <t>Excluded from analysis</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -146,21 +122,9 @@
     <t>Question in tool</t>
   </si>
   <si>
-    <t>Sub-set</t>
-  </si>
-  <si>
-    <t>Recall period</t>
-  </si>
-  <si>
     <t>Indicator</t>
   </si>
   <si>
-    <t>Sub-Sector</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
     <t>Sector</t>
   </si>
   <si>
@@ -173,49 +137,31 @@
     <t xml:space="preserve">Girls 13-17: &gt;30%  </t>
   </si>
   <si>
-    <t>% of settlements by proportion of Girls 13-17 attendance</t>
-  </si>
-  <si>
     <t>Boys 13-17: &lt;30%</t>
   </si>
   <si>
     <t>Boys 13-17: &gt;30%</t>
   </si>
   <si>
-    <t>% of settlements by proportion of Boys  13-17 attendance</t>
-  </si>
-  <si>
     <t>Girls 5-12 &lt;30%</t>
   </si>
   <si>
     <t>Girls 5-12 &gt;30%</t>
   </si>
   <si>
-    <t>% of settlements by proportion of Girls 5-12 attendance</t>
-  </si>
-  <si>
     <t xml:space="preserve">Boys 5-12 &lt;30% </t>
   </si>
   <si>
     <t xml:space="preserve">Boys 5-12 &gt;30% </t>
   </si>
   <si>
-    <t>% of settlements by proportion of Boys 5-12 attendance</t>
-  </si>
-  <si>
     <t>more than 1 hour</t>
   </si>
   <si>
     <t>Less than 1 hour</t>
   </si>
   <si>
-    <t>% of settlements by distance to nearest education facility</t>
-  </si>
-  <si>
     <t>education_facilities_fence</t>
-  </si>
-  <si>
-    <t>select_one percent</t>
   </si>
   <si>
     <t>None (0%)
@@ -231,28 +177,10 @@
     <t>More than 25%</t>
   </si>
   <si>
-    <t>% of settlements by proportion of fences and clear demarcation in schools or learning facilities</t>
-  </si>
-  <si>
-    <t>education_facilities_watersources</t>
-  </si>
-  <si>
-    <t>% of settlements by proportion of gender segregated latrines in schools or learning facilities</t>
-  </si>
-  <si>
-    <t>not_functional</t>
-  </si>
-  <si>
     <t>Integer</t>
   </si>
   <si>
-    <t>How many schools (primary and secondary) were functioning in the settlement in the last 6 months? Not functioning at all</t>
-  </si>
-  <si>
     <t>&gt;=1</t>
-  </si>
-  <si>
-    <t>% of settlements by availability of education facilities (Primary and secondary)</t>
   </si>
   <si>
     <t>Primary
@@ -271,16 +199,10 @@
 Basic Literacy and Numeracy Classes</t>
   </si>
   <si>
-    <t>% of settlements by  of type of available education facilities</t>
-  </si>
-  <si>
     <t>In_Need (1)</t>
   </si>
   <si>
     <t>Not_in_Need (0)</t>
-  </si>
-  <si>
-    <t>Shelter comments</t>
   </si>
   <si>
     <t>LSG Non-Critical indicators:</t>
@@ -319,12 +241,75 @@
 Flooding / weather events
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">In total, with or around the site, how many schools were opened for the last 6 months? </t>
+  </si>
+  <si>
+    <t>number_schools_opened</t>
+  </si>
+  <si>
+    <t>% of sites by amount of schools opened</t>
+  </si>
+  <si>
+    <t>education_facilities_segregated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple </t>
+  </si>
+  <si>
+    <t>select_one</t>
+  </si>
+  <si>
+    <t>boys_5_12</t>
+  </si>
+  <si>
+    <t>girls_5_12</t>
+  </si>
+  <si>
+    <t>boys_13_17</t>
+  </si>
+  <si>
+    <t>girls_13_17</t>
+  </si>
+  <si>
+    <t>% of sites by  of type of available education facilities</t>
+  </si>
+  <si>
+    <t>% of sites by proportion of gender segregated latrines in schools or learning facilities</t>
+  </si>
+  <si>
+    <t>% of sites by proportion of fences and clear demarcation in schools or learning facilities</t>
+  </si>
+  <si>
+    <t>% of sites by distance to nearest education facility</t>
+  </si>
+  <si>
+    <t>% of sites by proportion of Boys 5-12 attendance</t>
+  </si>
+  <si>
+    <t>% of sites by proportion of Girls 5-12 attendance</t>
+  </si>
+  <si>
+    <t>% of sites by proportion of Boys  13-17 attendance</t>
+  </si>
+  <si>
+    <t>% of sites by proportion of Girls 13-17 attendance</t>
+  </si>
+  <si>
+    <t>% of sites by main barrier accessing education for girls</t>
+  </si>
+  <si>
+    <t>% of sites by main barrier accessing education for boys</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,13 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
@@ -375,18 +353,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -419,27 +391,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -537,112 +494,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -959,499 +916,733 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D18" zoomScale="86" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="2"/>
-    <col min="2" max="2" width="11.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="2"/>
-    <col min="4" max="4" width="79.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="12" style="2"/>
-    <col min="11" max="11" width="98.81640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="51.81640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="24" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="12" style="2"/>
+    <col min="2" max="2" width="30.5546875" style="2" customWidth="1"/>
+    <col min="3" max="6" width="12" style="2"/>
+    <col min="7" max="7" width="33.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="12" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="19" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="33"/>
-    </row>
-    <row r="2" spans="1:17" s="19" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="23" t="s">
+    <row r="1" spans="1:10" s="16" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="1:10" s="16" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29">
+        <v>0</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="24" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" s="16" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="1:10" s="8" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1</v>
+      </c>
+      <c r="D16" s="15">
+        <v>2</v>
+      </c>
+      <c r="E16" s="14">
+        <v>3</v>
+      </c>
+      <c r="F16" s="13">
+        <v>4</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="29"/>
-      <c r="K3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29">
-        <v>0</v>
-      </c>
-      <c r="H4" s="29"/>
-      <c r="K4" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="28" t="s">
+      <c r="C18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="29"/>
-      <c r="K5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="29"/>
-      <c r="K6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="29"/>
-      <c r="K7" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="73.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="38"/>
-      <c r="K8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="73.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="38"/>
-      <c r="K9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="73.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="38"/>
-      <c r="K10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="73.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="38"/>
-      <c r="K11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K14" s="20"/>
-    </row>
-    <row r="15" spans="1:17" s="19" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="33"/>
-    </row>
-    <row r="16" spans="1:17" s="10" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="17">
-        <v>1</v>
-      </c>
-      <c r="F16" s="17">
-        <v>2</v>
-      </c>
-      <c r="G16" s="16">
-        <v>3</v>
-      </c>
-      <c r="H16" s="15">
-        <v>4</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q16" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="168" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="D17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="46.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.35"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A15:Q15"/>
+  <mergeCells count="21">
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A559C4740925E445AF0B2B750D1B7473" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="906bf6171cc09e52267921fda83b0e92">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c03b9d1-50a6-43a4-ac1d-3b3601202a1e" xmlns:ns4="bd40c1a4-aba5-4c6e-9265-7d967b595228" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b40f89ec4c18827ee4e1ba452517ca9" ns3:_="" ns4:_="">
+    <xsd:import namespace="3c03b9d1-50a6-43a4-ac1d-3b3601202a1e"/>
+    <xsd:import namespace="bd40c1a4-aba5-4c6e-9265-7d967b595228"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3c03b9d1-50a6-43a4-ac1d-3b3601202a1e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Partage du hachage d’indicateur" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bd40c1a4-aba5-4c6e-9265-7d967b595228" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1412792E-901B-4097-A380-71CD7D84780B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68397679-5804-49F6-B9EB-5ECEC9471C9A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3c03b9d1-50a6-43a4-ac1d-3b3601202a1e"/>
+    <ds:schemaRef ds:uri="bd40c1a4-aba5-4c6e-9265-7d967b595228"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{514A2346-824E-4006-9983-49319A60F05E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="bd40c1a4-aba5-4c6e-9265-7d967b595228"/>
+    <ds:schemaRef ds:uri="3c03b9d1-50a6-43a4-ac1d-3b3601202a1e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>